--- a/Project-Descriptions-and-Plans/CV32E40Pv2/Milestone-data/RTL_Freeze_v2.0.0/CV32E40Pv2_waiver_list.xlsx
+++ b/Project-Descriptions-and-Plans/CV32E40Pv2/Milestone-data/RTL_Freeze_v2.0.0/CV32E40Pv2_waiver_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dolphinintegrationfr.sharepoint.com/sites/PANTHER/Documents partages/General/CV32E40P/OpenHW Group/RTL_freeze_v2_0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="888" documentId="13_ncr:40009_{FA898899-A122-4FBE-A95A-CEA7C721CE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85A49A65-DEC9-49CB-91DA-107C1A777C76}"/>
+  <xr:revisionPtr revIDLastSave="902" documentId="13_ncr:40009_{FA898899-A122-4FBE-A95A-CEA7C721CE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A348691-6086-4B63-AAE9-92817AB613D9}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="774" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="774" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" summary" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2241" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2249" uniqueCount="295">
   <si>
     <t>code cov waiver</t>
   </si>
@@ -916,6 +916,18 @@
   </si>
   <si>
     <t>feccondrow 241 5</t>
+  </si>
+  <si>
+    <t>one specific condition (Row17) is unreachable. Proven with Formal.</t>
+  </si>
+  <si>
+    <t>feccondrow 387 17</t>
+  </si>
+  <si>
+    <t>one specific condition (Row15) is unreachable. Proven with Formal.</t>
+  </si>
+  <si>
+    <t>feccondrow 396 15</t>
   </si>
 </sst>
 </file>
@@ -2075,8 +2087,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FE9C33C9-2B61-4812-A612-B3493AC2B566}" name="Table364" displayName="Table364" ref="A2:F388" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" tableBorderDxfId="38">
-  <autoFilter ref="A2:F388" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FE9C33C9-2B61-4812-A612-B3493AC2B566}" name="Table364" displayName="Table364" ref="A2:F390" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" tableBorderDxfId="38">
+  <autoFilter ref="A2:F390" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
     <tableColumn id="2" xr3:uid="{3FAB4C40-A884-4ED7-8B0B-4D0D22987092}" name="Line" dataDxfId="37"/>
     <tableColumn id="3" xr3:uid="{C493823C-8987-43EB-BEA4-D5330431F62E}" name="Code coverage type" dataDxfId="36"/>
@@ -7180,10 +7192,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC713BF-A35D-42F8-93DB-E92222AF1DAF}">
-  <dimension ref="A1:F388"/>
+  <dimension ref="A1:F390"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A370" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D395" sqref="D395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14178,6 +14190,46 @@
       </c>
       <c r="F388" s="1">
         <v>64</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A389" s="1">
+        <v>387</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E389" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F389" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A390" s="1">
+        <v>396</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E390" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F390" s="1">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -19407,6 +19459,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cbd820e2-9c8a-4c01-9a9c-6b4c26777899">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="51aa521f-7cbd-47c5-afee-4a8147a04eed" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EFCF9BE3DDC69D46817A851BEC5550B1" ma:contentTypeVersion="17" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="254d2fc45a10493323dcacd51be5aaf4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cbd820e2-9c8a-4c01-9a9c-6b4c26777899" xmlns:ns3="51aa521f-7cbd-47c5-afee-4a8147a04eed" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="003ab9e0b5c5bed7880e662758cd0922" ns2:_="" ns3:_="">
     <xsd:import namespace="cbd820e2-9c8a-4c01-9a9c-6b4c26777899"/>
@@ -19655,27 +19727,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cbd820e2-9c8a-4c01-9a9c-6b4c26777899">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="51aa521f-7cbd-47c5-afee-4a8147a04eed" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D755283-77AF-467A-8C74-DC8595DDCA72}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="51aa521f-7cbd-47c5-afee-4a8147a04eed"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="cbd820e2-9c8a-4c01-9a9c-6b4c26777899"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{234FD0E2-0AEF-428D-92BF-35044BB2AB06}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{643D8826-8392-4BEE-9D5B-BD3352057639}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19692,29 +19769,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D755283-77AF-467A-8C74-DC8595DDCA72}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="51aa521f-7cbd-47c5-afee-4a8147a04eed"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="cbd820e2-9c8a-4c01-9a9c-6b4c26777899"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{234FD0E2-0AEF-428D-92BF-35044BB2AB06}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Project-Descriptions-and-Plans/CV32E40Pv2/Milestone-data/RTL_Freeze_v2.0.0/CV32E40Pv2_waiver_list.xlsx
+++ b/Project-Descriptions-and-Plans/CV32E40Pv2/Milestone-data/RTL_Freeze_v2.0.0/CV32E40Pv2_waiver_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dolphinintegrationfr.sharepoint.com/sites/PANTHER/Documents partages/General/CV32E40P/OpenHW Group/RTL_freeze_v2_0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="902" documentId="13_ncr:40009_{FA898899-A122-4FBE-A95A-CEA7C721CE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A348691-6086-4B63-AAE9-92817AB613D9}"/>
+  <xr:revisionPtr revIDLastSave="989" documentId="13_ncr:40009_{FA898899-A122-4FBE-A95A-CEA7C721CE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E462B9EF-F06D-4066-8A57-749B9592602E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="774" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="774" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" summary" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2249" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="306">
   <si>
     <t>code cov waiver</t>
   </si>
@@ -928,6 +928,39 @@
   </si>
   <si>
     <t>feccondrow 396 15</t>
+  </si>
+  <si>
+    <t>effective_substraction_i is stuck at 0.</t>
+  </si>
+  <si>
+    <t>/uvmt_cv32e40p_tb/dut_wrap/cv32e40p_tb_wrapper_i/cv32e40p_top_i/fpu_gen/fp_wrapper_i/i_fpnew_bulk/gen_operation_groups[1]/i_opgroup_block/gen_merged_slice/i_multifmt_slice</t>
+  </si>
+  <si>
+    <t>We never have dst_fmt_is_int for this op group. This is the DIVSQRT opGroup and dst_fmt_is_int can only be asserted for the CONV opGroup.</t>
+  </si>
+  <si>
+    <t>/uvmt_cv32e40p_tb/dut_wrap/cv32e40p_tb_wrapper_i/cv32e40p_top_i/fpu_gen/fp_wrapper_i/i_fpnew_bulk/gen_operation_groups[1]/i_opgroup_block/gen_merged_slice/i_multifmt_slice/gen_num_lanes[0]/active_lane</t>
+  </si>
+  <si>
+    <t>This is use to manage all operands. In the DIVSQRT op group we have only 2 operands.</t>
+  </si>
+  <si>
+    <t>feccondrow 194 2</t>
+  </si>
+  <si>
+    <t>Statement hidden by previous line.</t>
+  </si>
+  <si>
+    <t>We never have result_fmt_is_int for this op group. This is the DIVSQRT opGroup and result_fmt_is_int can only be asserted for the CONV opGroup.</t>
+  </si>
+  <si>
+    <t>/uvmt_cv32e40p_tb/dut_wrap/cv32e40p_tb_wrapper_i/cv32e40p_top_i/fpu_gen/fp_wrapper_i/i_fpnew_bulk/gen_operation_groups[0]/i_opgroup_block/gen_merged_slice/i_multifmt_slice</t>
+  </si>
+  <si>
+    <t>We never have dst_fmt_is_int for this op group. This is the ADMUL opGroup and dst_fmt_is_int can only be asserted for the CONV opGroup.</t>
+  </si>
+  <si>
+    <t>We never have result_fmt_is_int for this op group. This is the ADMUL opGroup and result_fmt_is_int can only be asserted for the CONV opGroup.</t>
   </si>
 </sst>
 </file>
@@ -1543,7 +1576,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1608,6 +1641,11 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2031,8 +2069,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table7" displayName="Table7" ref="A3:D68" totalsRowShown="0" headerRowDxfId="61">
-  <autoFilter ref="A3:D68" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table7" displayName="Table7" ref="A3:D75" totalsRowShown="0" headerRowDxfId="61">
+  <autoFilter ref="A3:D75" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="core-v-verif issue no. "/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category S/N"/>
@@ -2044,8 +2082,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table79" displayName="Table79" ref="A72:D85" totalsRowShown="0" headerRowDxfId="59">
-  <autoFilter ref="A72:D85" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table79" displayName="Table79" ref="A79:D92" totalsRowShown="0" headerRowDxfId="59">
+  <autoFilter ref="A79:D92" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="core-v-verif issue no. "/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Category S/N"/>
@@ -2087,8 +2125,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FE9C33C9-2B61-4812-A612-B3493AC2B566}" name="Table364" displayName="Table364" ref="A2:F390" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" tableBorderDxfId="38">
-  <autoFilter ref="A2:F390" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FE9C33C9-2B61-4812-A612-B3493AC2B566}" name="Table364" displayName="Table364" ref="A2:F398" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" tableBorderDxfId="38">
+  <autoFilter ref="A2:F398" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
     <tableColumn id="2" xr3:uid="{3FAB4C40-A884-4ED7-8B0B-4D0D22987092}" name="Line" dataDxfId="37"/>
     <tableColumn id="3" xr3:uid="{C493823C-8987-43EB-BEA4-D5330431F62E}" name="Code coverage type" dataDxfId="36"/>
@@ -2478,17 +2516,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="118.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="122.21875" style="1" customWidth="1"/>
     <col min="4" max="4" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3216,88 +3254,165 @@
         <v>125</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="17" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>65</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D68" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>66</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D69" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>67</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D70" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>68</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D71" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>69</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D72" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>70</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>71</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D74" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="78" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="19"/>
-    </row>
-    <row r="72" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="19"/>
+    </row>
+    <row r="79" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B73" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D80" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B74" t="s">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
         <v>28</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D81" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
         <v>109</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D82" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B76" t="s">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
         <v>132</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D83" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
+    <row r="84" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
         <v>275</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D84" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A78:D78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
@@ -7192,10 +7307,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC713BF-A35D-42F8-93DB-E92222AF1DAF}">
-  <dimension ref="A1:F390"/>
+  <dimension ref="A1:F398"/>
   <sheetViews>
-    <sheetView topLeftCell="A370" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D395" sqref="D395"/>
+    <sheetView tabSelected="1" topLeftCell="A230" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D245" sqref="D245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8041,29 +8156,28 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>148</v>
-      </c>
-      <c r="B48" t="s">
-        <v>43</v>
-      </c>
-      <c r="C48" t="s">
-        <v>234</v>
-      </c>
-      <c r="D48" t="s">
-        <v>235</v>
-      </c>
-      <c r="E48"/>
-      <c r="F48">
-        <v>36</v>
+      <c r="A48" s="1">
+        <v>73</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F48" s="1">
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C49" t="s">
         <v>234</v>
@@ -8078,7 +8192,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B50" t="s">
         <v>38</v>
@@ -8087,29 +8201,29 @@
         <v>234</v>
       </c>
       <c r="D50" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E50"/>
       <c r="F50">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>240</v>
+        <v>155</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C51" t="s">
         <v>234</v>
       </c>
       <c r="D51" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E51"/>
       <c r="F51">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -8117,7 +8231,7 @@
         <v>240</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C52" t="s">
         <v>234</v>
@@ -8132,16 +8246,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C53" t="s">
         <v>234</v>
       </c>
       <c r="D53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E53"/>
       <c r="F53">
@@ -8153,7 +8267,7 @@
         <v>241</v>
       </c>
       <c r="B54" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C54" t="s">
         <v>234</v>
@@ -8168,20 +8282,20 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B55" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C55" t="s">
         <v>234</v>
       </c>
       <c r="D55" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E55"/>
       <c r="F55">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -8189,7 +8303,7 @@
         <v>242</v>
       </c>
       <c r="B56" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C56" t="s">
         <v>234</v>
@@ -8204,38 +8318,38 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="B57" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C57" t="s">
         <v>234</v>
       </c>
       <c r="D57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E57"/>
       <c r="F57">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="B58" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C58" t="s">
         <v>234</v>
       </c>
       <c r="D58" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E58"/>
       <c r="F58">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -8243,7 +8357,7 @@
         <v>282</v>
       </c>
       <c r="B59" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C59" t="s">
         <v>234</v>
@@ -8258,20 +8372,20 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B60" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C60" t="s">
         <v>234</v>
       </c>
       <c r="D60" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E60"/>
       <c r="F60">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -8279,7 +8393,7 @@
         <v>285</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C61" t="s">
         <v>234</v>
@@ -8294,20 +8408,20 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B62" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C62" t="s">
         <v>234</v>
       </c>
       <c r="D62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E62"/>
       <c r="F62">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -8315,7 +8429,7 @@
         <v>287</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C63" t="s">
         <v>234</v>
@@ -8330,20 +8444,20 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B64" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C64" t="s">
         <v>234</v>
       </c>
       <c r="D64" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E64"/>
       <c r="F64">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -8351,7 +8465,7 @@
         <v>288</v>
       </c>
       <c r="B65" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C65" t="s">
         <v>234</v>
@@ -8366,28 +8480,28 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>359</v>
+        <v>288</v>
       </c>
       <c r="B66" t="s">
         <v>38</v>
       </c>
       <c r="C66" t="s">
-        <v>154</v>
+        <v>234</v>
       </c>
       <c r="D66" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E66"/>
       <c r="F66">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B67" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C67" t="s">
         <v>154</v>
@@ -8402,25 +8516,25 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>397</v>
+        <v>360</v>
       </c>
       <c r="B68" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C68" t="s">
         <v>154</v>
       </c>
       <c r="D68" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E68"/>
       <c r="F68">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B69" t="s">
         <v>38</v>
@@ -8438,10 +8552,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B70" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C70" t="s">
         <v>154</v>
@@ -8456,10 +8570,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B71" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C71" t="s">
         <v>154</v>
@@ -8474,10 +8588,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B72" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C72" t="s">
         <v>154</v>
@@ -8492,28 +8606,28 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B73" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C73" t="s">
         <v>154</v>
       </c>
       <c r="D73" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E73"/>
       <c r="F73">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B74" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C74" t="s">
         <v>154</v>
@@ -8528,25 +8642,25 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B75" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C75" t="s">
         <v>154</v>
       </c>
       <c r="D75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E75"/>
       <c r="F75">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B76" t="s">
         <v>38</v>
@@ -8564,7 +8678,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B77" t="s">
         <v>38</v>
@@ -8582,7 +8696,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B78" t="s">
         <v>38</v>
@@ -8600,10 +8714,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B79" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C79" t="s">
         <v>154</v>
@@ -8618,10 +8732,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B80" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C80" t="s">
         <v>154</v>
@@ -8636,10 +8750,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B81" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C81" t="s">
         <v>154</v>
@@ -8654,10 +8768,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B82" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C82" t="s">
         <v>154</v>
@@ -8672,10 +8786,10 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B83" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C83" t="s">
         <v>154</v>
@@ -8690,10 +8804,10 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B84" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C84" t="s">
         <v>154</v>
@@ -8708,10 +8822,10 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B85" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C85" t="s">
         <v>154</v>
@@ -8726,28 +8840,28 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="B86" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C86" t="s">
         <v>154</v>
       </c>
       <c r="D86" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E86"/>
       <c r="F86">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B87" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C87" t="s">
         <v>154</v>
@@ -8762,10 +8876,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="B88" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C88" t="s">
         <v>154</v>
@@ -8780,10 +8894,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B89" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C89" t="s">
         <v>154</v>
@@ -8798,10 +8912,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="B90" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C90" t="s">
         <v>154</v>
@@ -8816,10 +8930,10 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B91" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C91" t="s">
         <v>154</v>
@@ -8834,20 +8948,20 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>280</v>
+        <v>484</v>
       </c>
       <c r="B92" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C92" t="s">
-        <v>249</v>
+        <v>154</v>
       </c>
       <c r="D92" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E92"/>
       <c r="F92">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -8855,7 +8969,7 @@
         <v>280</v>
       </c>
       <c r="B93" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C93" t="s">
         <v>249</v>
@@ -8870,10 +8984,10 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B94" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C94" t="s">
         <v>249</v>
@@ -8888,7 +9002,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B95" t="s">
         <v>35</v>
@@ -8906,7 +9020,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B96" t="s">
         <v>35</v>
@@ -8924,10 +9038,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B97" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C97" t="s">
         <v>249</v>
@@ -8945,7 +9059,7 @@
         <v>286</v>
       </c>
       <c r="B98" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C98" t="s">
         <v>249</v>
@@ -8960,10 +9074,10 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B99" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C99" t="s">
         <v>249</v>
@@ -8978,7 +9092,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B100" t="s">
         <v>35</v>
@@ -8996,7 +9110,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B101" t="s">
         <v>35</v>
@@ -9014,10 +9128,10 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B102" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C102" t="s">
         <v>249</v>
@@ -9035,7 +9149,7 @@
         <v>292</v>
       </c>
       <c r="B103" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C103" t="s">
         <v>249</v>
@@ -9050,10 +9164,10 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B104" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C104" t="s">
         <v>249</v>
@@ -9068,7 +9182,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B105" t="s">
         <v>35</v>
@@ -9086,7 +9200,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B106" t="s">
         <v>35</v>
@@ -9104,10 +9218,10 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B107" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C107" t="s">
         <v>249</v>
@@ -9125,7 +9239,7 @@
         <v>298</v>
       </c>
       <c r="B108" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C108" t="s">
         <v>249</v>
@@ -9140,10 +9254,10 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B109" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C109" t="s">
         <v>249</v>
@@ -9158,7 +9272,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B110" t="s">
         <v>35</v>
@@ -9176,7 +9290,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B111" t="s">
         <v>35</v>
@@ -9194,20 +9308,20 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>63</v>
+        <v>302</v>
       </c>
       <c r="B112" t="s">
         <v>35</v>
       </c>
       <c r="C112" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D112" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E112"/>
       <c r="F112">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -9215,7 +9329,7 @@
         <v>63</v>
       </c>
       <c r="B113" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C113" t="s">
         <v>251</v>
@@ -9230,10 +9344,10 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B114" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C114" t="s">
         <v>251</v>
@@ -9251,7 +9365,7 @@
         <v>64</v>
       </c>
       <c r="B115" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C115" t="s">
         <v>251</v>
@@ -9266,10 +9380,10 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B116" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C116" t="s">
         <v>251</v>
@@ -9287,7 +9401,7 @@
         <v>65</v>
       </c>
       <c r="B117" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C117" t="s">
         <v>251</v>
@@ -9302,10 +9416,10 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B118" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C118" t="s">
         <v>251</v>
@@ -9323,7 +9437,7 @@
         <v>66</v>
       </c>
       <c r="B119" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C119" t="s">
         <v>251</v>
@@ -9338,10 +9452,10 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B120" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C120" t="s">
         <v>251</v>
@@ -9359,7 +9473,7 @@
         <v>67</v>
       </c>
       <c r="B121" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C121" t="s">
         <v>251</v>
@@ -9374,10 +9488,10 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B122" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C122" t="s">
         <v>251</v>
@@ -9395,7 +9509,7 @@
         <v>68</v>
       </c>
       <c r="B123" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C123" t="s">
         <v>251</v>
@@ -9410,10 +9524,10 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B124" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C124" t="s">
         <v>251</v>
@@ -9431,7 +9545,7 @@
         <v>69</v>
       </c>
       <c r="B125" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C125" t="s">
         <v>251</v>
@@ -9446,10 +9560,10 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B126" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C126" t="s">
         <v>251</v>
@@ -9467,7 +9581,7 @@
         <v>70</v>
       </c>
       <c r="B127" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C127" t="s">
         <v>251</v>
@@ -9482,10 +9596,10 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B128" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C128" t="s">
         <v>251</v>
@@ -9503,7 +9617,7 @@
         <v>71</v>
       </c>
       <c r="B129" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C129" t="s">
         <v>251</v>
@@ -9518,10 +9632,10 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B130" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C130" t="s">
         <v>251</v>
@@ -9539,7 +9653,7 @@
         <v>72</v>
       </c>
       <c r="B131" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C131" t="s">
         <v>251</v>
@@ -9554,10 +9668,10 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B132" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C132" t="s">
         <v>251</v>
@@ -9575,7 +9689,7 @@
         <v>73</v>
       </c>
       <c r="B133" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C133" t="s">
         <v>251</v>
@@ -9590,10 +9704,10 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B134" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C134" t="s">
         <v>251</v>
@@ -9611,7 +9725,7 @@
         <v>74</v>
       </c>
       <c r="B135" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C135" t="s">
         <v>251</v>
@@ -9626,10 +9740,10 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B136" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C136" t="s">
         <v>251</v>
@@ -9647,7 +9761,7 @@
         <v>75</v>
       </c>
       <c r="B137" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C137" t="s">
         <v>251</v>
@@ -9662,10 +9776,10 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B138" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C138" t="s">
         <v>251</v>
@@ -9683,7 +9797,7 @@
         <v>76</v>
       </c>
       <c r="B139" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C139" t="s">
         <v>251</v>
@@ -9698,10 +9812,10 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B140" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C140" t="s">
         <v>251</v>
@@ -9719,7 +9833,7 @@
         <v>77</v>
       </c>
       <c r="B141" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C141" t="s">
         <v>251</v>
@@ -9734,10 +9848,10 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B142" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C142" t="s">
         <v>251</v>
@@ -9755,7 +9869,7 @@
         <v>78</v>
       </c>
       <c r="B143" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C143" t="s">
         <v>251</v>
@@ -9770,10 +9884,10 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B144" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C144" t="s">
         <v>251</v>
@@ -9791,7 +9905,7 @@
         <v>79</v>
       </c>
       <c r="B145" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C145" t="s">
         <v>251</v>
@@ -9806,10 +9920,10 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B146" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C146" t="s">
         <v>251</v>
@@ -9827,7 +9941,7 @@
         <v>80</v>
       </c>
       <c r="B147" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C147" t="s">
         <v>251</v>
@@ -9842,10 +9956,10 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B148" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C148" t="s">
         <v>251</v>
@@ -9863,7 +9977,7 @@
         <v>81</v>
       </c>
       <c r="B149" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C149" t="s">
         <v>251</v>
@@ -9878,10 +9992,10 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B150" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C150" t="s">
         <v>251</v>
@@ -9899,7 +10013,7 @@
         <v>82</v>
       </c>
       <c r="B151" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C151" t="s">
         <v>251</v>
@@ -9914,10 +10028,10 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B152" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C152" t="s">
         <v>251</v>
@@ -9935,7 +10049,7 @@
         <v>83</v>
       </c>
       <c r="B153" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C153" t="s">
         <v>251</v>
@@ -9950,10 +10064,10 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B154" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C154" t="s">
         <v>251</v>
@@ -9971,7 +10085,7 @@
         <v>84</v>
       </c>
       <c r="B155" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C155" t="s">
         <v>251</v>
@@ -9986,10 +10100,10 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B156" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C156" t="s">
         <v>251</v>
@@ -10007,7 +10121,7 @@
         <v>85</v>
       </c>
       <c r="B157" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C157" t="s">
         <v>251</v>
@@ -10022,10 +10136,10 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B158" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C158" t="s">
         <v>251</v>
@@ -10043,7 +10157,7 @@
         <v>86</v>
       </c>
       <c r="B159" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C159" t="s">
         <v>251</v>
@@ -10058,10 +10172,10 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B160" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C160" t="s">
         <v>251</v>
@@ -10079,7 +10193,7 @@
         <v>87</v>
       </c>
       <c r="B161" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C161" t="s">
         <v>251</v>
@@ -10094,10 +10208,10 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B162" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C162" t="s">
         <v>251</v>
@@ -10115,7 +10229,7 @@
         <v>88</v>
       </c>
       <c r="B163" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C163" t="s">
         <v>251</v>
@@ -10130,10 +10244,10 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B164" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C164" t="s">
         <v>251</v>
@@ -10151,7 +10265,7 @@
         <v>89</v>
       </c>
       <c r="B165" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C165" t="s">
         <v>251</v>
@@ -10166,10 +10280,10 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B166" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C166" t="s">
         <v>251</v>
@@ -10187,7 +10301,7 @@
         <v>90</v>
       </c>
       <c r="B167" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C167" t="s">
         <v>251</v>
@@ -10202,10 +10316,10 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B168" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C168" t="s">
         <v>251</v>
@@ -10223,7 +10337,7 @@
         <v>91</v>
       </c>
       <c r="B169" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C169" t="s">
         <v>251</v>
@@ -10238,10 +10352,10 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="B170" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C170" t="s">
         <v>251</v>
@@ -10259,7 +10373,7 @@
         <v>125</v>
       </c>
       <c r="B171" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C171" t="s">
         <v>251</v>
@@ -10274,10 +10388,10 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B172" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C172" t="s">
         <v>251</v>
@@ -10295,7 +10409,7 @@
         <v>126</v>
       </c>
       <c r="B173" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C173" t="s">
         <v>251</v>
@@ -10310,10 +10424,10 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B174" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C174" t="s">
         <v>251</v>
@@ -10331,7 +10445,7 @@
         <v>127</v>
       </c>
       <c r="B175" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C175" t="s">
         <v>251</v>
@@ -10346,10 +10460,10 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B176" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C176" t="s">
         <v>251</v>
@@ -10367,7 +10481,7 @@
         <v>128</v>
       </c>
       <c r="B177" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C177" t="s">
         <v>251</v>
@@ -10382,10 +10496,10 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B178" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C178" t="s">
         <v>251</v>
@@ -10403,7 +10517,7 @@
         <v>129</v>
       </c>
       <c r="B179" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C179" t="s">
         <v>251</v>
@@ -10418,10 +10532,10 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B180" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C180" t="s">
         <v>251</v>
@@ -10439,7 +10553,7 @@
         <v>130</v>
       </c>
       <c r="B181" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C181" t="s">
         <v>251</v>
@@ -10454,10 +10568,10 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B182" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C182" t="s">
         <v>251</v>
@@ -10475,7 +10589,7 @@
         <v>131</v>
       </c>
       <c r="B183" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C183" t="s">
         <v>251</v>
@@ -10490,10 +10604,10 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B184" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C184" t="s">
         <v>251</v>
@@ -10511,7 +10625,7 @@
         <v>132</v>
       </c>
       <c r="B185" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C185" t="s">
         <v>251</v>
@@ -10526,10 +10640,10 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B186" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C186" t="s">
         <v>251</v>
@@ -10547,7 +10661,7 @@
         <v>133</v>
       </c>
       <c r="B187" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C187" t="s">
         <v>251</v>
@@ -10562,10 +10676,10 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B188" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C188" t="s">
         <v>251</v>
@@ -10583,7 +10697,7 @@
         <v>134</v>
       </c>
       <c r="B189" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C189" t="s">
         <v>251</v>
@@ -10598,10 +10712,10 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B190" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C190" t="s">
         <v>251</v>
@@ -10619,7 +10733,7 @@
         <v>135</v>
       </c>
       <c r="B191" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C191" t="s">
         <v>251</v>
@@ -10634,10 +10748,10 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B192" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C192" t="s">
         <v>251</v>
@@ -10655,7 +10769,7 @@
         <v>136</v>
       </c>
       <c r="B193" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C193" t="s">
         <v>251</v>
@@ -10670,10 +10784,10 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B194" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C194" t="s">
         <v>251</v>
@@ -10691,7 +10805,7 @@
         <v>137</v>
       </c>
       <c r="B195" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C195" t="s">
         <v>251</v>
@@ -10706,10 +10820,10 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B196" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C196" t="s">
         <v>251</v>
@@ -10727,7 +10841,7 @@
         <v>138</v>
       </c>
       <c r="B197" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C197" t="s">
         <v>251</v>
@@ -10742,10 +10856,10 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B198" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C198" t="s">
         <v>251</v>
@@ -10763,7 +10877,7 @@
         <v>139</v>
       </c>
       <c r="B199" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C199" t="s">
         <v>251</v>
@@ -10778,10 +10892,10 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B200" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C200" t="s">
         <v>251</v>
@@ -10799,7 +10913,7 @@
         <v>140</v>
       </c>
       <c r="B201" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C201" t="s">
         <v>251</v>
@@ -10814,10 +10928,10 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B202" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C202" t="s">
         <v>251</v>
@@ -10835,7 +10949,7 @@
         <v>141</v>
       </c>
       <c r="B203" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C203" t="s">
         <v>251</v>
@@ -10850,10 +10964,10 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B204" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C204" t="s">
         <v>251</v>
@@ -10871,7 +10985,7 @@
         <v>142</v>
       </c>
       <c r="B205" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C205" t="s">
         <v>251</v>
@@ -10886,10 +11000,10 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B206" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C206" t="s">
         <v>251</v>
@@ -10907,7 +11021,7 @@
         <v>143</v>
       </c>
       <c r="B207" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C207" t="s">
         <v>251</v>
@@ -10922,10 +11036,10 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B208" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C208" t="s">
         <v>251</v>
@@ -10943,7 +11057,7 @@
         <v>144</v>
       </c>
       <c r="B209" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C209" t="s">
         <v>251</v>
@@ -10958,10 +11072,10 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B210" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C210" t="s">
         <v>251</v>
@@ -10979,7 +11093,7 @@
         <v>145</v>
       </c>
       <c r="B211" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C211" t="s">
         <v>251</v>
@@ -10994,10 +11108,10 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B212" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C212" t="s">
         <v>251</v>
@@ -11015,7 +11129,7 @@
         <v>146</v>
       </c>
       <c r="B213" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C213" t="s">
         <v>251</v>
@@ -11030,10 +11144,10 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B214" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C214" t="s">
         <v>251</v>
@@ -11051,7 +11165,7 @@
         <v>147</v>
       </c>
       <c r="B215" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C215" t="s">
         <v>251</v>
@@ -11066,10 +11180,10 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B216" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C216" t="s">
         <v>251</v>
@@ -11087,7 +11201,7 @@
         <v>148</v>
       </c>
       <c r="B217" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C217" t="s">
         <v>251</v>
@@ -11102,10 +11216,10 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B218" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C218" t="s">
         <v>251</v>
@@ -11123,7 +11237,7 @@
         <v>149</v>
       </c>
       <c r="B219" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C219" t="s">
         <v>251</v>
@@ -11138,10 +11252,10 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B220" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C220" t="s">
         <v>251</v>
@@ -11159,7 +11273,7 @@
         <v>150</v>
       </c>
       <c r="B221" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C221" t="s">
         <v>251</v>
@@ -11174,10 +11288,10 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B222" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C222" t="s">
         <v>251</v>
@@ -11195,7 +11309,7 @@
         <v>151</v>
       </c>
       <c r="B223" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C223" t="s">
         <v>251</v>
@@ -11210,10 +11324,10 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B224" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C224" t="s">
         <v>251</v>
@@ -11231,7 +11345,7 @@
         <v>152</v>
       </c>
       <c r="B225" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C225" t="s">
         <v>251</v>
@@ -11246,10 +11360,10 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B226" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C226" t="s">
         <v>251</v>
@@ -11267,7 +11381,7 @@
         <v>153</v>
       </c>
       <c r="B227" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C227" t="s">
         <v>251</v>
@@ -11282,20 +11396,20 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="B228" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C228" t="s">
         <v>251</v>
       </c>
       <c r="D228" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E228"/>
       <c r="F228">
-        <v>4</v>
+        <v>49</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
@@ -11303,7 +11417,7 @@
         <v>93</v>
       </c>
       <c r="B229" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C229" t="s">
         <v>251</v>
@@ -11318,10 +11432,10 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="B230" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C230" t="s">
         <v>251</v>
@@ -11339,7 +11453,7 @@
         <v>155</v>
       </c>
       <c r="B231" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C231" t="s">
         <v>251</v>
@@ -11354,16 +11468,16 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="B232" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C232" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D232" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E232"/>
       <c r="F232">
@@ -11375,7 +11489,7 @@
         <v>139</v>
       </c>
       <c r="B233" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C233" t="s">
         <v>254</v>
@@ -11390,10 +11504,10 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>218</v>
+        <v>139</v>
       </c>
       <c r="B234" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C234" t="s">
         <v>254</v>
@@ -11411,7 +11525,7 @@
         <v>218</v>
       </c>
       <c r="B235" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C235" t="s">
         <v>254</v>
@@ -11426,16 +11540,16 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>410</v>
+        <v>218</v>
       </c>
       <c r="B236" t="s">
         <v>38</v>
       </c>
       <c r="C236" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D236" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E236"/>
       <c r="F236">
@@ -11444,10 +11558,10 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B237" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C237" t="s">
         <v>256</v>
@@ -11462,7 +11576,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B238" t="s">
         <v>35</v>
@@ -11480,7 +11594,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B239" t="s">
         <v>35</v>
@@ -11498,7 +11612,7 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B240" t="s">
         <v>35</v>
@@ -11516,16 +11630,16 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="B241" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C241" t="s">
         <v>256</v>
       </c>
       <c r="D241" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E241"/>
       <c r="F241">
@@ -11534,10 +11648,10 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B242" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C242" t="s">
         <v>256</v>
@@ -11552,7 +11666,7 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B243" t="s">
         <v>35</v>
@@ -11570,56 +11684,56 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>279</v>
+        <v>438</v>
       </c>
       <c r="B244" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C244" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D244" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E244"/>
       <c r="F244">
-        <v>50</v>
+        <v>4</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>139</v>
+        <v>279</v>
       </c>
       <c r="B245" t="s">
         <v>38</v>
       </c>
       <c r="C245" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D245" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E245"/>
       <c r="F245">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>207</v>
+        <v>139</v>
       </c>
       <c r="B246" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C246" t="s">
-        <v>262</v>
-      </c>
-      <c r="D246" t="s">
-        <v>263</v>
+        <v>260</v>
+      </c>
+      <c r="D246" s="26" t="s">
+        <v>261</v>
       </c>
       <c r="E246"/>
       <c r="F246">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
@@ -11627,7 +11741,7 @@
         <v>207</v>
       </c>
       <c r="B247" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C247" t="s">
         <v>262</v>
@@ -11642,10 +11756,10 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B248" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C248" t="s">
         <v>262</v>
@@ -11663,7 +11777,7 @@
         <v>208</v>
       </c>
       <c r="B249" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C249" t="s">
         <v>262</v>
@@ -11671,9 +11785,7 @@
       <c r="D249" t="s">
         <v>263</v>
       </c>
-      <c r="E249" t="s">
-        <v>46</v>
-      </c>
+      <c r="E249"/>
       <c r="F249">
         <v>52</v>
       </c>
@@ -11691,17 +11803,19 @@
       <c r="D250" t="s">
         <v>263</v>
       </c>
-      <c r="E250"/>
+      <c r="E250" t="s">
+        <v>46</v>
+      </c>
       <c r="F250">
         <v>52</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B251" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C251" t="s">
         <v>262</v>
@@ -11716,164 +11830,160 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B252" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C252" t="s">
         <v>262</v>
       </c>
       <c r="D252" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E252"/>
       <c r="F252">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="B253" t="s">
         <v>38</v>
       </c>
       <c r="C253" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D253" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E253"/>
       <c r="F253">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A254">
-        <v>243</v>
-      </c>
-      <c r="B254" t="s">
-        <v>35</v>
-      </c>
-      <c r="C254" t="s">
-        <v>264</v>
-      </c>
-      <c r="D254" t="s">
-        <v>265</v>
-      </c>
-      <c r="E254"/>
-      <c r="F254">
-        <v>34</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <v>131</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C254" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="D254" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="F254" s="1">
+        <v>66</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A255">
-        <v>242</v>
-      </c>
-      <c r="B255" t="s">
-        <v>38</v>
-      </c>
-      <c r="C255" t="s">
-        <v>266</v>
-      </c>
-      <c r="D255" t="s">
-        <v>265</v>
-      </c>
-      <c r="E255"/>
-      <c r="F255">
-        <v>34</v>
+      <c r="A255" s="1">
+        <v>194</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C255" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="D255" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="F255" s="1">
+        <v>67</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A256">
-        <v>243</v>
-      </c>
-      <c r="B256" t="s">
-        <v>35</v>
-      </c>
-      <c r="C256" t="s">
-        <v>266</v>
-      </c>
-      <c r="D256" t="s">
-        <v>265</v>
-      </c>
-      <c r="E256"/>
-      <c r="F256">
-        <v>34</v>
+      <c r="A256" s="1">
+        <v>194</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C256" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="D256" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F256" s="1">
+        <v>67</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A257">
-        <v>242</v>
-      </c>
-      <c r="B257" t="s">
-        <v>38</v>
-      </c>
-      <c r="C257" t="s">
-        <v>267</v>
-      </c>
-      <c r="D257" t="s">
-        <v>265</v>
-      </c>
-      <c r="E257"/>
-      <c r="F257">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A258">
-        <v>243</v>
-      </c>
-      <c r="B258" t="s">
-        <v>35</v>
-      </c>
-      <c r="C258" t="s">
-        <v>267</v>
-      </c>
-      <c r="D258" t="s">
-        <v>265</v>
-      </c>
-      <c r="E258"/>
-      <c r="F258">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A259">
-        <v>242</v>
-      </c>
-      <c r="B259" t="s">
-        <v>38</v>
-      </c>
-      <c r="C259" t="s">
-        <v>268</v>
-      </c>
-      <c r="D259" t="s">
-        <v>265</v>
-      </c>
-      <c r="E259"/>
-      <c r="F259">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A260">
-        <v>243</v>
-      </c>
-      <c r="B260" t="s">
-        <v>35</v>
-      </c>
-      <c r="C260" t="s">
-        <v>268</v>
-      </c>
-      <c r="D260" t="s">
-        <v>265</v>
-      </c>
-      <c r="E260"/>
-      <c r="F260">
-        <v>34</v>
+      <c r="A257" s="1">
+        <v>195</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C257" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="D257" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="F257" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A258" s="1">
+        <v>503</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C258" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="D258" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="F258" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
+        <v>131</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C259" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F259" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
+        <v>503</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C260" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F260" s="1">
+        <v>71</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
@@ -11884,7 +11994,7 @@
         <v>38</v>
       </c>
       <c r="C261" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D261" t="s">
         <v>265</v>
@@ -11902,7 +12012,7 @@
         <v>35</v>
       </c>
       <c r="C262" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D262" t="s">
         <v>265</v>
@@ -11914,187 +12024,187 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>125</v>
+        <v>242</v>
       </c>
       <c r="B263" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C263" t="s">
-        <v>146</v>
+        <v>266</v>
       </c>
       <c r="D263" t="s">
-        <v>147</v>
+        <v>265</v>
       </c>
       <c r="E263"/>
-      <c r="F263" s="1">
-        <v>53</v>
+      <c r="F263">
+        <v>34</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>125</v>
+        <v>243</v>
       </c>
       <c r="B264" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C264" t="s">
-        <v>146</v>
+        <v>266</v>
       </c>
       <c r="D264" t="s">
-        <v>147</v>
+        <v>265</v>
       </c>
       <c r="E264"/>
-      <c r="F264" s="1">
-        <v>53</v>
+      <c r="F264">
+        <v>34</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>126</v>
+        <v>242</v>
       </c>
       <c r="B265" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C265" t="s">
-        <v>146</v>
+        <v>267</v>
       </c>
       <c r="D265" t="s">
-        <v>147</v>
+        <v>265</v>
       </c>
       <c r="E265"/>
-      <c r="F265" s="1">
-        <v>53</v>
+      <c r="F265">
+        <v>34</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>127</v>
+        <v>243</v>
       </c>
       <c r="B266" t="s">
         <v>35</v>
       </c>
       <c r="C266" t="s">
-        <v>146</v>
+        <v>267</v>
       </c>
       <c r="D266" t="s">
-        <v>147</v>
+        <v>265</v>
       </c>
       <c r="E266"/>
-      <c r="F266" s="1">
-        <v>53</v>
+      <c r="F266">
+        <v>34</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>129</v>
+        <v>242</v>
       </c>
       <c r="B267" t="s">
         <v>38</v>
       </c>
       <c r="C267" t="s">
-        <v>146</v>
+        <v>268</v>
       </c>
       <c r="D267" t="s">
-        <v>148</v>
+        <v>265</v>
       </c>
       <c r="E267"/>
-      <c r="F267" s="1">
-        <v>54</v>
+      <c r="F267">
+        <v>34</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>130</v>
+        <v>243</v>
       </c>
       <c r="B268" t="s">
         <v>35</v>
       </c>
       <c r="C268" t="s">
-        <v>146</v>
+        <v>268</v>
       </c>
       <c r="D268" t="s">
-        <v>148</v>
+        <v>265</v>
       </c>
       <c r="E268"/>
-      <c r="F268" s="1">
-        <v>54</v>
+      <c r="F268">
+        <v>34</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>131</v>
+        <v>242</v>
       </c>
       <c r="B269" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C269" t="s">
-        <v>146</v>
+        <v>269</v>
       </c>
       <c r="D269" t="s">
-        <v>148</v>
+        <v>265</v>
       </c>
       <c r="E269"/>
-      <c r="F269" s="1">
-        <v>54</v>
+      <c r="F269">
+        <v>34</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>139</v>
+        <v>243</v>
       </c>
       <c r="B270" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C270" t="s">
-        <v>146</v>
+        <v>269</v>
       </c>
       <c r="D270" t="s">
-        <v>148</v>
+        <v>265</v>
       </c>
       <c r="E270"/>
-      <c r="F270" s="1">
-        <v>54</v>
+      <c r="F270">
+        <v>34</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B271" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C271" t="s">
         <v>146</v>
       </c>
       <c r="D271" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E271"/>
       <c r="F271" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B272" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C272" t="s">
         <v>146</v>
       </c>
       <c r="D272" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E272"/>
       <c r="F272" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>220</v>
+        <v>126</v>
       </c>
       <c r="B273" t="s">
         <v>35</v>
@@ -12103,353 +12213,353 @@
         <v>146</v>
       </c>
       <c r="D273" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E273"/>
       <c r="F273" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>220</v>
+        <v>127</v>
       </c>
       <c r="B274" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C274" t="s">
         <v>146</v>
       </c>
       <c r="D274" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E274"/>
       <c r="F274" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>872</v>
+        <v>129</v>
       </c>
       <c r="B275" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C275" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="D275" t="s">
-        <v>149</v>
-      </c>
-      <c r="E275" t="s">
-        <v>281</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="E275"/>
       <c r="F275" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>181</v>
+        <v>130</v>
       </c>
       <c r="B276" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C276" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D276" t="s">
-        <v>272</v>
+        <v>148</v>
       </c>
       <c r="E276"/>
       <c r="F276" s="1">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="B277" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C277" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D277" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E277"/>
       <c r="F277" s="1">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="B278" t="s">
         <v>38</v>
       </c>
       <c r="C278" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D278" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E278"/>
       <c r="F278" s="1">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="B279" t="s">
         <v>35</v>
       </c>
       <c r="C279" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D279" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E279"/>
       <c r="F279" s="1">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="B280" t="s">
         <v>35</v>
       </c>
       <c r="C280" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D280" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E280"/>
       <c r="F280" s="1">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="B281" t="s">
         <v>35</v>
       </c>
       <c r="C281" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D281" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E281"/>
       <c r="F281" s="1">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="B282" t="s">
         <v>38</v>
       </c>
       <c r="C282" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D282" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E282"/>
       <c r="F282" s="1">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>501</v>
+        <v>872</v>
       </c>
       <c r="B283" t="s">
         <v>43</v>
       </c>
       <c r="C283" t="s">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="D283" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E283" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F283" s="1">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>511</v>
+        <v>181</v>
       </c>
       <c r="B284" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C284" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D284" t="s">
-        <v>156</v>
+        <v>272</v>
       </c>
       <c r="E284"/>
       <c r="F284" s="1">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>512</v>
+        <v>196</v>
       </c>
       <c r="B285" t="s">
         <v>43</v>
       </c>
       <c r="C285" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D285" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E285"/>
       <c r="F285" s="1">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>512</v>
+        <v>196</v>
       </c>
       <c r="B286" t="s">
         <v>38</v>
       </c>
       <c r="C286" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D286" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E286"/>
       <c r="F286" s="1">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>513</v>
+        <v>197</v>
       </c>
       <c r="B287" t="s">
         <v>35</v>
       </c>
       <c r="C287" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D287" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E287"/>
       <c r="F287" s="1">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>514</v>
+        <v>198</v>
       </c>
       <c r="B288" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C288" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D288" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E288"/>
       <c r="F288" s="1">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>515</v>
+        <v>193</v>
       </c>
       <c r="B289" t="s">
         <v>35</v>
       </c>
       <c r="C289" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D289" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E289"/>
       <c r="F289" s="1">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>520</v>
+        <v>193</v>
       </c>
       <c r="B290" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C290" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D290" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E290"/>
       <c r="F290" s="1">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="B291" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C291" t="s">
         <v>154</v>
       </c>
       <c r="D291" t="s">
-        <v>157</v>
-      </c>
-      <c r="E291"/>
+        <v>155</v>
+      </c>
+      <c r="E291" t="s">
+        <v>280</v>
+      </c>
       <c r="F291" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="B292" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C292" t="s">
         <v>154</v>
       </c>
       <c r="D292" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E292"/>
       <c r="F292" s="1">
@@ -12458,157 +12568,157 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>208</v>
+        <v>512</v>
       </c>
       <c r="B293" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C293" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D293" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E293"/>
       <c r="F293" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>208</v>
+        <v>512</v>
       </c>
       <c r="B294" t="s">
         <v>38</v>
       </c>
       <c r="C294" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D294" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E294"/>
       <c r="F294" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>208</v>
+        <v>513</v>
       </c>
       <c r="B295" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C295" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D295" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E295"/>
       <c r="F295" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>208</v>
+        <v>514</v>
       </c>
       <c r="B296" t="s">
         <v>38</v>
       </c>
       <c r="C296" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D296" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E296"/>
       <c r="F296" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>208</v>
+        <v>515</v>
       </c>
       <c r="B297" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C297" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D297" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E297"/>
       <c r="F297" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>209</v>
+        <v>520</v>
       </c>
       <c r="B298" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C298" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D298" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E298"/>
       <c r="F298" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>209</v>
+        <v>520</v>
       </c>
       <c r="B299" t="s">
         <v>38</v>
       </c>
       <c r="C299" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D299" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E299"/>
       <c r="F299" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>209</v>
+        <v>521</v>
       </c>
       <c r="B300" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C300" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D300" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E300"/>
       <c r="F300" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B301" t="s">
         <v>38</v>
       </c>
       <c r="C301" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D301" t="s">
         <v>159</v>
@@ -12620,13 +12730,13 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B302" t="s">
         <v>38</v>
       </c>
       <c r="C302" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D302" t="s">
         <v>159</v>
@@ -12638,13 +12748,13 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="B303" t="s">
         <v>38</v>
       </c>
       <c r="C303" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D303" t="s">
         <v>159</v>
@@ -12656,13 +12766,13 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304">
-        <v>272</v>
+        <v>208</v>
       </c>
       <c r="B304" t="s">
         <v>38</v>
       </c>
       <c r="C304" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D304" t="s">
         <v>159</v>
@@ -12674,13 +12784,13 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>299</v>
+        <v>208</v>
       </c>
       <c r="B305" t="s">
         <v>38</v>
       </c>
       <c r="C305" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D305" t="s">
         <v>159</v>
@@ -12692,13 +12802,13 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306">
-        <v>301</v>
+        <v>209</v>
       </c>
       <c r="B306" t="s">
         <v>38</v>
       </c>
       <c r="C306" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D306" t="s">
         <v>159</v>
@@ -12710,13 +12820,13 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B307" t="s">
         <v>38</v>
       </c>
       <c r="C307" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D307" t="s">
         <v>159</v>
@@ -12728,13 +12838,13 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B308" t="s">
         <v>38</v>
       </c>
       <c r="C308" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D308" t="s">
         <v>159</v>
@@ -12746,13 +12856,13 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B309" t="s">
         <v>38</v>
       </c>
       <c r="C309" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D309" t="s">
         <v>159</v>
@@ -12764,13 +12874,13 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B310" t="s">
         <v>38</v>
       </c>
       <c r="C310" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D310" t="s">
         <v>159</v>
@@ -12782,13 +12892,13 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="B311" t="s">
         <v>38</v>
       </c>
       <c r="C311" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D311" t="s">
         <v>159</v>
@@ -12800,13 +12910,13 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312">
-        <v>209</v>
+        <v>272</v>
       </c>
       <c r="B312" t="s">
         <v>38</v>
       </c>
       <c r="C312" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D312" t="s">
         <v>159</v>
@@ -12818,13 +12928,13 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313">
-        <v>209</v>
+        <v>299</v>
       </c>
       <c r="B313" t="s">
         <v>38</v>
       </c>
       <c r="C313" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D313" t="s">
         <v>159</v>
@@ -12836,13 +12946,13 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314">
-        <v>209</v>
+        <v>301</v>
       </c>
       <c r="B314" t="s">
         <v>38</v>
       </c>
       <c r="C314" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D314" t="s">
         <v>159</v>
@@ -12854,13 +12964,13 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B315" t="s">
         <v>38</v>
       </c>
       <c r="C315" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D315" t="s">
         <v>159</v>
@@ -12872,13 +12982,13 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B316" t="s">
         <v>38</v>
       </c>
       <c r="C316" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D316" t="s">
         <v>159</v>
@@ -12890,13 +13000,13 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="B317" t="s">
         <v>38</v>
       </c>
       <c r="C317" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D317" t="s">
         <v>159</v>
@@ -12908,13 +13018,13 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318">
-        <v>272</v>
+        <v>208</v>
       </c>
       <c r="B318" t="s">
         <v>38</v>
       </c>
       <c r="C318" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D318" t="s">
         <v>159</v>
@@ -12926,13 +13036,13 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319">
-        <v>299</v>
+        <v>208</v>
       </c>
       <c r="B319" t="s">
         <v>38</v>
       </c>
       <c r="C319" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D319" t="s">
         <v>159</v>
@@ -12944,13 +13054,13 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320">
-        <v>301</v>
+        <v>209</v>
       </c>
       <c r="B320" t="s">
         <v>38</v>
       </c>
       <c r="C320" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D320" t="s">
         <v>159</v>
@@ -12962,13 +13072,13 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B321" t="s">
         <v>38</v>
       </c>
       <c r="C321" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D321" t="s">
         <v>159</v>
@@ -12980,13 +13090,13 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B322" t="s">
         <v>38</v>
       </c>
       <c r="C322" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D322" t="s">
         <v>159</v>
@@ -12998,13 +13108,13 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B323" t="s">
         <v>38</v>
       </c>
       <c r="C323" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D323" t="s">
         <v>159</v>
@@ -13016,13 +13126,13 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B324" t="s">
         <v>38</v>
       </c>
       <c r="C324" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D324" t="s">
         <v>159</v>
@@ -13034,13 +13144,13 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="B325" t="s">
         <v>38</v>
       </c>
       <c r="C325" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D325" t="s">
         <v>159</v>
@@ -13052,13 +13162,13 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326">
-        <v>209</v>
+        <v>272</v>
       </c>
       <c r="B326" t="s">
         <v>38</v>
       </c>
       <c r="C326" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D326" t="s">
         <v>159</v>
@@ -13070,13 +13180,13 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327">
-        <v>209</v>
+        <v>299</v>
       </c>
       <c r="B327" t="s">
         <v>38</v>
       </c>
       <c r="C327" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D327" t="s">
         <v>159</v>
@@ -13088,13 +13198,13 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328">
-        <v>209</v>
+        <v>301</v>
       </c>
       <c r="B328" t="s">
         <v>38</v>
       </c>
       <c r="C328" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D328" t="s">
         <v>159</v>
@@ -13106,13 +13216,13 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B329" t="s">
         <v>38</v>
       </c>
       <c r="C329" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D329" t="s">
         <v>159</v>
@@ -13124,13 +13234,13 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B330" t="s">
         <v>38</v>
       </c>
       <c r="C330" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D330" t="s">
         <v>159</v>
@@ -13142,13 +13252,13 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="B331" t="s">
         <v>38</v>
       </c>
       <c r="C331" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D331" t="s">
         <v>159</v>
@@ -13160,13 +13270,13 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332">
-        <v>272</v>
+        <v>208</v>
       </c>
       <c r="B332" t="s">
         <v>38</v>
       </c>
       <c r="C332" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D332" t="s">
         <v>159</v>
@@ -13178,13 +13288,13 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333">
-        <v>299</v>
+        <v>208</v>
       </c>
       <c r="B333" t="s">
         <v>38</v>
       </c>
       <c r="C333" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D333" t="s">
         <v>159</v>
@@ -13196,13 +13306,13 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334">
-        <v>301</v>
+        <v>209</v>
       </c>
       <c r="B334" t="s">
         <v>38</v>
       </c>
       <c r="C334" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D334" t="s">
         <v>159</v>
@@ -13214,13 +13324,13 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B335" t="s">
         <v>38</v>
       </c>
       <c r="C335" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D335" t="s">
         <v>159</v>
@@ -13232,13 +13342,13 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B336" t="s">
         <v>38</v>
       </c>
       <c r="C336" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D336" t="s">
         <v>159</v>
@@ -13250,13 +13360,13 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B337" t="s">
         <v>38</v>
       </c>
       <c r="C337" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D337" t="s">
         <v>159</v>
@@ -13268,13 +13378,13 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B338" t="s">
         <v>38</v>
       </c>
       <c r="C338" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D338" t="s">
         <v>159</v>
@@ -13286,13 +13396,13 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="B339" t="s">
         <v>38</v>
       </c>
       <c r="C339" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D339" t="s">
         <v>159</v>
@@ -13304,13 +13414,13 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340">
-        <v>209</v>
+        <v>272</v>
       </c>
       <c r="B340" t="s">
         <v>38</v>
       </c>
       <c r="C340" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D340" t="s">
         <v>159</v>
@@ -13322,13 +13432,13 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341">
-        <v>209</v>
+        <v>299</v>
       </c>
       <c r="B341" t="s">
         <v>38</v>
       </c>
       <c r="C341" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D341" t="s">
         <v>159</v>
@@ -13340,13 +13450,13 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342">
-        <v>209</v>
+        <v>301</v>
       </c>
       <c r="B342" t="s">
         <v>38</v>
       </c>
       <c r="C342" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D342" t="s">
         <v>159</v>
@@ -13358,13 +13468,13 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B343" t="s">
         <v>38</v>
       </c>
       <c r="C343" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D343" t="s">
         <v>159</v>
@@ -13376,13 +13486,13 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B344" t="s">
         <v>38</v>
       </c>
       <c r="C344" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D344" t="s">
         <v>159</v>
@@ -13394,13 +13504,13 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="B345" t="s">
         <v>38</v>
       </c>
       <c r="C345" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D345" t="s">
         <v>159</v>
@@ -13412,13 +13522,13 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346">
-        <v>272</v>
+        <v>208</v>
       </c>
       <c r="B346" t="s">
         <v>38</v>
       </c>
       <c r="C346" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D346" t="s">
         <v>159</v>
@@ -13430,13 +13540,13 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347">
-        <v>299</v>
+        <v>208</v>
       </c>
       <c r="B347" t="s">
         <v>38</v>
       </c>
       <c r="C347" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D347" t="s">
         <v>159</v>
@@ -13448,13 +13558,13 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348">
-        <v>301</v>
+        <v>209</v>
       </c>
       <c r="B348" t="s">
         <v>38</v>
       </c>
       <c r="C348" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D348" t="s">
         <v>159</v>
@@ -13466,13 +13576,13 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B349" t="s">
         <v>38</v>
       </c>
       <c r="C349" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D349" t="s">
         <v>159</v>
@@ -13490,7 +13600,7 @@
         <v>38</v>
       </c>
       <c r="C350" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D350" t="s">
         <v>159</v>
@@ -13502,175 +13612,175 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="B351" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C351" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D351" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="E351"/>
       <c r="F351" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352">
-        <v>82</v>
+        <v>209</v>
       </c>
       <c r="B352" t="s">
         <v>38</v>
       </c>
       <c r="C352" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D352" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="E352"/>
       <c r="F352" s="1">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353">
-        <v>101</v>
+        <v>230</v>
       </c>
       <c r="B353" t="s">
         <v>38</v>
       </c>
       <c r="C353" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D353" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="E353"/>
       <c r="F353" s="1">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354">
-        <v>82</v>
+        <v>272</v>
       </c>
       <c r="B354" t="s">
         <v>38</v>
       </c>
       <c r="C354" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D354" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="E354"/>
       <c r="F354" s="1">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355">
-        <v>82</v>
+        <v>299</v>
       </c>
       <c r="B355" t="s">
         <v>38</v>
       </c>
       <c r="C355" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D355" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="E355"/>
       <c r="F355" s="1">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="B356" t="s">
         <v>38</v>
       </c>
       <c r="C356" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D356" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="E356"/>
       <c r="F356" s="1">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357">
-        <v>101</v>
+        <v>208</v>
       </c>
       <c r="B357" t="s">
         <v>38</v>
       </c>
       <c r="C357" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D357" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="E357"/>
       <c r="F357" s="1">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358">
-        <v>101</v>
+        <v>209</v>
       </c>
       <c r="B358" t="s">
         <v>38</v>
       </c>
       <c r="C358" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D358" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="E358"/>
       <c r="F358" s="1">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c r="B359" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C359" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D359" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E359"/>
       <c r="F359" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B360" t="s">
         <v>38</v>
       </c>
       <c r="C360" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D360" t="s">
         <v>195</v>
@@ -13682,13 +13792,13 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="B361" t="s">
         <v>38</v>
       </c>
       <c r="C361" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D361" t="s">
         <v>195</v>
@@ -13706,7 +13816,7 @@
         <v>38</v>
       </c>
       <c r="C362" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D362" t="s">
         <v>195</v>
@@ -13718,13 +13828,13 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B363" t="s">
         <v>38</v>
       </c>
       <c r="C363" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D363" t="s">
         <v>195</v>
@@ -13742,7 +13852,7 @@
         <v>38</v>
       </c>
       <c r="C364" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D364" t="s">
         <v>195</v>
@@ -13760,7 +13870,7 @@
         <v>38</v>
       </c>
       <c r="C365" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D365" t="s">
         <v>195</v>
@@ -13772,13 +13882,13 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="B366" t="s">
         <v>38</v>
       </c>
       <c r="C366" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D366" t="s">
         <v>195</v>
@@ -13790,13 +13900,13 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B367" t="s">
         <v>38</v>
       </c>
       <c r="C367" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D367" t="s">
         <v>195</v>
@@ -13808,13 +13918,13 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="B368" t="s">
         <v>38</v>
       </c>
       <c r="C368" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D368" t="s">
         <v>195</v>
@@ -13832,7 +13942,7 @@
         <v>38</v>
       </c>
       <c r="C369" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D369" t="s">
         <v>195</v>
@@ -13844,13 +13954,13 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B370" t="s">
         <v>38</v>
       </c>
       <c r="C370" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D370" t="s">
         <v>195</v>
@@ -13868,7 +13978,7 @@
         <v>38</v>
       </c>
       <c r="C371" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D371" t="s">
         <v>195</v>
@@ -13886,7 +13996,7 @@
         <v>38</v>
       </c>
       <c r="C372" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D372" t="s">
         <v>195</v>
@@ -13898,13 +14008,13 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="B373" t="s">
         <v>38</v>
       </c>
       <c r="C373" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D373" t="s">
         <v>195</v>
@@ -13916,13 +14026,13 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B374" t="s">
         <v>38</v>
       </c>
       <c r="C374" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D374" t="s">
         <v>195</v>
@@ -13934,13 +14044,13 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="B375" t="s">
         <v>38</v>
       </c>
       <c r="C375" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D375" t="s">
         <v>195</v>
@@ -13958,7 +14068,7 @@
         <v>38</v>
       </c>
       <c r="C376" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D376" t="s">
         <v>195</v>
@@ -13970,13 +14080,13 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B377" t="s">
         <v>38</v>
       </c>
       <c r="C377" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D377" t="s">
         <v>195</v>
@@ -13994,7 +14104,7 @@
         <v>38</v>
       </c>
       <c r="C378" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D378" t="s">
         <v>195</v>
@@ -14012,7 +14122,7 @@
         <v>38</v>
       </c>
       <c r="C379" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D379" t="s">
         <v>195</v>
@@ -14024,13 +14134,13 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="B380" t="s">
         <v>38</v>
       </c>
       <c r="C380" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D380" t="s">
         <v>195</v>
@@ -14042,13 +14152,13 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B381" t="s">
         <v>38</v>
       </c>
       <c r="C381" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D381" t="s">
         <v>195</v>
@@ -14066,7 +14176,7 @@
         <v>38</v>
       </c>
       <c r="C382" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D382" t="s">
         <v>195</v>
@@ -14078,13 +14188,13 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B383" t="s">
         <v>38</v>
       </c>
       <c r="C383" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D383" t="s">
         <v>195</v>
@@ -14096,13 +14206,13 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B384" t="s">
         <v>38</v>
       </c>
       <c r="C384" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D384" t="s">
         <v>195</v>
@@ -14112,123 +14222,267 @@
         <v>63</v>
       </c>
     </row>
-    <row r="385" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A385" s="1">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>101</v>
+      </c>
+      <c r="B385" t="s">
+        <v>38</v>
+      </c>
+      <c r="C385" t="s">
+        <v>220</v>
+      </c>
+      <c r="D385" t="s">
+        <v>195</v>
+      </c>
+      <c r="E385"/>
+      <c r="F385" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>101</v>
+      </c>
+      <c r="B386" t="s">
+        <v>38</v>
+      </c>
+      <c r="C386" t="s">
+        <v>221</v>
+      </c>
+      <c r="D386" t="s">
+        <v>195</v>
+      </c>
+      <c r="E386"/>
+      <c r="F386" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>101</v>
+      </c>
+      <c r="B387" t="s">
+        <v>38</v>
+      </c>
+      <c r="C387" t="s">
+        <v>222</v>
+      </c>
+      <c r="D387" t="s">
+        <v>195</v>
+      </c>
+      <c r="E387"/>
+      <c r="F387" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>82</v>
+      </c>
+      <c r="B388" t="s">
+        <v>38</v>
+      </c>
+      <c r="C388" t="s">
+        <v>223</v>
+      </c>
+      <c r="D388" t="s">
+        <v>195</v>
+      </c>
+      <c r="E388"/>
+      <c r="F388" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>101</v>
+      </c>
+      <c r="B389" t="s">
+        <v>38</v>
+      </c>
+      <c r="C389" t="s">
+        <v>224</v>
+      </c>
+      <c r="D389" t="s">
+        <v>195</v>
+      </c>
+      <c r="E389"/>
+      <c r="F389" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>101</v>
+      </c>
+      <c r="B390" t="s">
+        <v>38</v>
+      </c>
+      <c r="C390" t="s">
+        <v>225</v>
+      </c>
+      <c r="D390" t="s">
+        <v>195</v>
+      </c>
+      <c r="E390"/>
+      <c r="F390" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>101</v>
+      </c>
+      <c r="B391" t="s">
+        <v>38</v>
+      </c>
+      <c r="C391" t="s">
+        <v>226</v>
+      </c>
+      <c r="D391" t="s">
+        <v>195</v>
+      </c>
+      <c r="E391"/>
+      <c r="F391" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>101</v>
+      </c>
+      <c r="B392" t="s">
+        <v>38</v>
+      </c>
+      <c r="C392" t="s">
+        <v>227</v>
+      </c>
+      <c r="D392" t="s">
+        <v>195</v>
+      </c>
+      <c r="E392"/>
+      <c r="F392" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A393" s="1">
         <v>211</v>
       </c>
-      <c r="B385" s="1" t="s">
+      <c r="B393" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C385" s="1" t="s">
+      <c r="C393" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D385" s="1" t="s">
+      <c r="D393" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="E385" s="3" t="s">
+      <c r="E393" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="F385" s="1">
+      <c r="F393" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A386" s="1">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A394" s="1">
         <v>237</v>
       </c>
-      <c r="B386" s="1" t="s">
+      <c r="B394" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C386" s="1" t="s">
+      <c r="C394" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D386" s="1" t="s">
+      <c r="D394" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E386" s="3" t="s">
+      <c r="E394" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="F386" s="1">
+      <c r="F394" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A387" s="1">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A395" s="1">
         <v>241</v>
       </c>
-      <c r="B387" s="1" t="s">
+      <c r="B395" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C387" s="1" t="s">
+      <c r="C395" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D387" s="1" t="s">
+      <c r="D395" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E387" s="3" t="s">
+      <c r="E395" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="F387" s="1">
+      <c r="F395" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A388" s="1">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A396" s="1">
         <v>387</v>
       </c>
-      <c r="B388" s="1" t="s">
+      <c r="B396" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C388" s="1" t="s">
+      <c r="C396" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D388" s="1" t="s">
+      <c r="D396" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E388" s="3" t="s">
+      <c r="E396" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="F388" s="1">
+      <c r="F396" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A389" s="1">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A397" s="1">
         <v>387</v>
       </c>
-      <c r="B389" s="1" t="s">
+      <c r="B397" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C389" s="1" t="s">
+      <c r="C397" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D389" s="1" t="s">
+      <c r="D397" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E389" s="3" t="s">
+      <c r="E397" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="F389" s="1">
+      <c r="F397" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A390" s="1">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A398" s="1">
         <v>396</v>
       </c>
-      <c r="B390" s="1" t="s">
+      <c r="B398" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C390" s="1" t="s">
+      <c r="C398" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D390" s="1" t="s">
+      <c r="D398" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E390" s="3" t="s">
+      <c r="E398" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="F390" s="1">
+      <c r="F398" s="1">
         <v>55</v>
       </c>
     </row>
@@ -19459,26 +19713,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cbd820e2-9c8a-4c01-9a9c-6b4c26777899">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="51aa521f-7cbd-47c5-afee-4a8147a04eed" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EFCF9BE3DDC69D46817A851BEC5550B1" ma:contentTypeVersion="17" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="254d2fc45a10493323dcacd51be5aaf4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cbd820e2-9c8a-4c01-9a9c-6b4c26777899" xmlns:ns3="51aa521f-7cbd-47c5-afee-4a8147a04eed" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="003ab9e0b5c5bed7880e662758cd0922" ns2:_="" ns3:_="">
     <xsd:import namespace="cbd820e2-9c8a-4c01-9a9c-6b4c26777899"/>
@@ -19727,32 +19961,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D755283-77AF-467A-8C74-DC8595DDCA72}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="51aa521f-7cbd-47c5-afee-4a8147a04eed"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="cbd820e2-9c8a-4c01-9a9c-6b4c26777899"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{234FD0E2-0AEF-428D-92BF-35044BB2AB06}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cbd820e2-9c8a-4c01-9a9c-6b4c26777899">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="51aa521f-7cbd-47c5-afee-4a8147a04eed" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{643D8826-8392-4BEE-9D5B-BD3352057639}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19769,4 +19998,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{234FD0E2-0AEF-428D-92BF-35044BB2AB06}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D755283-77AF-467A-8C74-DC8595DDCA72}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="51aa521f-7cbd-47c5-afee-4a8147a04eed"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="cbd820e2-9c8a-4c01-9a9c-6b4c26777899"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>